--- a/data/trans_orig/RUIDO_1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB40A839-ED80-4284-BB2D-DD0BDA85806C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{852A1745-51BB-4360-8EA9-26DD78AF5211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C51E369C-4AF0-438D-9DEB-3ABE6331005E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AE896600-BA1B-4179-96B6-452D0FA8AF23}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>81,09%</t>
   </si>
   <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
   </si>
   <si>
     <t>85,11%</t>
   </si>
   <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>83,23%</t>
   </si>
   <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>18,91%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>76,19%</t>
   </si>
   <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
   </si>
   <si>
     <t>79,93%</t>
   </si>
   <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>77,99%</t>
   </si>
   <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
   </si>
   <si>
     <t>23,81%</t>
   </si>
   <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
   </si>
   <si>
     <t>20,07%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
   </si>
   <si>
     <t>22,01%</t>
   </si>
   <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>77,1%</t>
   </si>
   <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
   </si>
   <si>
     <t>75,38%</t>
   </si>
   <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
   </si>
   <si>
     <t>76,23%</t>
   </si>
   <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
   </si>
   <si>
     <t>22,9%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
   </si>
   <si>
     <t>23,77%</t>
   </si>
   <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>71,9%</t>
   </si>
   <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
   </si>
   <si>
     <t>74,04%</t>
   </si>
   <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
   </si>
   <si>
     <t>73,1%</t>
   </si>
   <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
   </si>
   <si>
     <t>28,1%</t>
   </si>
   <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
   </si>
   <si>
     <t>25,96%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
   </si>
   <si>
     <t>26,9%</t>
   </si>
   <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,55 @@
     <t>43,1%</t>
   </si>
   <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
   </si>
   <si>
     <t>49,84%</t>
   </si>
   <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
   </si>
   <si>
     <t>46,87%</t>
   </si>
   <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
   </si>
   <si>
     <t>56,9%</t>
   </si>
   <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
   </si>
   <si>
     <t>50,16%</t>
   </si>
   <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
   </si>
   <si>
     <t>53,13%</t>
   </si>
   <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +365,55 @@
     <t>79,95%</t>
   </si>
   <si>
-    <t>73,04%</t>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
   </si>
   <si>
     <t>85,16%</t>
   </si>
   <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
     <t>20,05%</t>
   </si>
   <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
     <t>14,84%</t>
   </si>
   <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
+    <t>23,57%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,55 +422,55 @@
     <t>76,17%</t>
   </si>
   <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
   </si>
   <si>
     <t>81,31%</t>
   </si>
   <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
   </si>
   <si>
     <t>79,26%</t>
   </si>
   <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
   </si>
   <si>
     <t>23,83%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
   </si>
   <si>
     <t>18,69%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,109 +479,109 @@
     <t>81,83%</t>
   </si>
   <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
   </si>
   <si>
     <t>89,38%</t>
   </si>
   <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
   <si>
     <t>85,6%</t>
   </si>
   <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>18,17%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
   </si>
   <si>
     <t>14,4%</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
   </si>
   <si>
     <t>75,7%</t>
   </si>
   <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
   </si>
   <si>
     <t>79,46%</t>
   </si>
   <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
   </si>
   <si>
     <t>77,7%</t>
   </si>
   <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
   </si>
   <si>
     <t>24,3%</t>
   </si>
   <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
   </si>
   <si>
     <t>20,54%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
   </si>
   <si>
     <t>22,3%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B595FC31-1245-494F-95C3-23816C52930E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E0F6E9-77CB-47DB-A77E-36294DAC3CCA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2357,7 +2357,7 @@
         <v>1344</v>
       </c>
       <c r="D28" s="7">
-        <v>1300176</v>
+        <v>1300175</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>164</v>
@@ -2459,7 +2459,7 @@
         <v>1763</v>
       </c>
       <c r="D30" s="7">
-        <v>1717488</v>
+        <v>1717487</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/RUIDO_1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{852A1745-51BB-4360-8EA9-26DD78AF5211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8361BB9-C1A7-42C0-A063-4BF2A9679DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AE896600-BA1B-4179-96B6-452D0FA8AF23}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{04CAD26E-CA43-4D6A-B59C-B14B841A5B80}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E0F6E9-77CB-47DB-A77E-36294DAC3CCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943D5C6-3589-4E84-A818-95DBFEBD753F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
